--- a/Excel_Files/Dynamic_Range/2_cm/724_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2_cm/724_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>161.337</v>
+        <v>25.924</v>
       </c>
       <c r="D2">
-        <v>484.866</v>
+        <v>40.65</v>
       </c>
       <c r="E2">
-        <v>407.881</v>
+        <v>47.456</v>
       </c>
       <c r="F2">
-        <v>854.114</v>
+        <v>73.136</v>
       </c>
       <c r="G2">
-        <v>361.602</v>
+        <v>42.969</v>
       </c>
       <c r="H2">
-        <v>1290.972</v>
+        <v>79.73399999999999</v>
       </c>
       <c r="I2">
-        <v>260.507</v>
+        <v>33.298</v>
       </c>
       <c r="J2">
-        <v>498.435</v>
+        <v>46.966</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>52.023</v>
+        <v>13.384</v>
       </c>
       <c r="D3">
-        <v>114.804</v>
+        <v>15.873</v>
       </c>
       <c r="E3">
-        <v>89.854</v>
+        <v>17.681</v>
       </c>
       <c r="F3">
-        <v>94.291</v>
+        <v>20.03</v>
       </c>
       <c r="G3">
-        <v>126.581</v>
+        <v>23.488</v>
       </c>
       <c r="H3">
-        <v>153.572</v>
+        <v>24.961</v>
       </c>
       <c r="I3">
-        <v>83.602</v>
+        <v>17.3</v>
       </c>
       <c r="J3">
-        <v>71.968</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>20.444</v>
+        <v>7.194</v>
       </c>
       <c r="D4">
-        <v>26.72</v>
+        <v>7.935</v>
       </c>
       <c r="E4">
-        <v>31.501</v>
+        <v>9.266</v>
       </c>
       <c r="F4">
-        <v>19.924</v>
+        <v>7.139</v>
       </c>
       <c r="G4">
-        <v>27.26</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="H4">
-        <v>35.888</v>
+        <v>10.125</v>
       </c>
       <c r="I4">
-        <v>36.292</v>
+        <v>10.199</v>
       </c>
       <c r="J4">
-        <v>11.443</v>
+        <v>5.169</v>
       </c>
     </row>
   </sheetData>
